--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N2">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O2">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P2">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q2">
-        <v>232.1120380491701</v>
+        <v>629.9369680538209</v>
       </c>
       <c r="R2">
-        <v>232.1120380491701</v>
+        <v>5669.432712484389</v>
       </c>
       <c r="S2">
-        <v>0.003615971422451402</v>
+        <v>0.008335586782312464</v>
       </c>
       <c r="T2">
-        <v>0.003615971422451402</v>
+        <v>0.008335586782312464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N3">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P3">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q3">
-        <v>709.2857425410918</v>
+        <v>865.3596789524835</v>
       </c>
       <c r="R3">
-        <v>709.2857425410918</v>
+        <v>7788.237110572351</v>
       </c>
       <c r="S3">
-        <v>0.01104965083645295</v>
+        <v>0.0114507975680611</v>
       </c>
       <c r="T3">
-        <v>0.01104965083645295</v>
+        <v>0.0114507975680611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N4">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O4">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P4">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q4">
-        <v>635.0351206085052</v>
+        <v>821.9886498591662</v>
       </c>
       <c r="R4">
-        <v>635.0351206085052</v>
+        <v>7397.897848732496</v>
       </c>
       <c r="S4">
-        <v>0.009892933032137259</v>
+        <v>0.01087689415362511</v>
       </c>
       <c r="T4">
-        <v>0.009892933032137259</v>
+        <v>0.01087689415362511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N5">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O5">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P5">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q5">
-        <v>983.8000853896298</v>
+        <v>1186.687673100674</v>
       </c>
       <c r="R5">
-        <v>983.8000853896298</v>
+        <v>10680.18905790606</v>
       </c>
       <c r="S5">
-        <v>0.01532618912863348</v>
+        <v>0.01570274263025308</v>
       </c>
       <c r="T5">
-        <v>0.01532618912863348</v>
+        <v>0.01570274263025308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N6">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O6">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P6">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q6">
-        <v>781.8620326346224</v>
+        <v>958.9822841517945</v>
       </c>
       <c r="R6">
-        <v>781.8620326346224</v>
+        <v>8630.840557366149</v>
       </c>
       <c r="S6">
-        <v>0.01218028496095345</v>
+        <v>0.0126896506438475</v>
       </c>
       <c r="T6">
-        <v>0.01218028496095345</v>
+        <v>0.0126896506438475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N7">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O7">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P7">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q7">
-        <v>254.3675983099867</v>
+        <v>351.5188612001259</v>
       </c>
       <c r="R7">
-        <v>254.3675983099867</v>
+        <v>3163.669750801133</v>
       </c>
       <c r="S7">
-        <v>0.003962681013949239</v>
+        <v>0.004651443115341905</v>
       </c>
       <c r="T7">
-        <v>0.003962681013949239</v>
+        <v>0.004651443115341904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N8">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O8">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P8">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q8">
-        <v>103.2961834951386</v>
+        <v>235.428799578003</v>
       </c>
       <c r="R8">
-        <v>103.2961834951386</v>
+        <v>2118.859196202027</v>
       </c>
       <c r="S8">
-        <v>0.001609205841739207</v>
+        <v>0.003115291353674649</v>
       </c>
       <c r="T8">
-        <v>0.001609205841739207</v>
+        <v>0.003115291353674649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N9">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P9">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q9">
-        <v>315.6514880821894</v>
+        <v>323.4142473784501</v>
       </c>
       <c r="R9">
-        <v>315.6514880821894</v>
+        <v>2910.728226406051</v>
       </c>
       <c r="S9">
-        <v>0.004917395797100655</v>
+        <v>0.004279551228733431</v>
       </c>
       <c r="T9">
-        <v>0.004917395797100655</v>
+        <v>0.004279551228733431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N10">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O10">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P10">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q10">
-        <v>282.607937509634</v>
+        <v>307.205023545392</v>
       </c>
       <c r="R10">
-        <v>282.607937509634</v>
+        <v>2764.845211908528</v>
       </c>
       <c r="S10">
-        <v>0.004402624846093899</v>
+        <v>0.004065064067657914</v>
       </c>
       <c r="T10">
-        <v>0.004402624846093899</v>
+        <v>0.004065064067657914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N11">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O11">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P11">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q11">
-        <v>437.8178529517402</v>
+        <v>443.5054116846741</v>
       </c>
       <c r="R11">
-        <v>437.8178529517402</v>
+        <v>3991.548705162067</v>
       </c>
       <c r="S11">
-        <v>0.006820571900614457</v>
+        <v>0.005868647237745476</v>
       </c>
       <c r="T11">
-        <v>0.006820571900614457</v>
+        <v>0.005868647237745475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N12">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O12">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P12">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q12">
-        <v>347.9499153499282</v>
+        <v>358.40418871105</v>
       </c>
       <c r="R12">
-        <v>347.9499153499282</v>
+        <v>3225.637698399451</v>
       </c>
       <c r="S12">
-        <v>0.005420558799639662</v>
+        <v>0.004742552619788464</v>
       </c>
       <c r="T12">
-        <v>0.005420558799639662</v>
+        <v>0.004742552619788464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N13">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O13">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P13">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q13">
-        <v>113.2005144200234</v>
+        <v>131.374514782091</v>
       </c>
       <c r="R13">
-        <v>113.2005144200234</v>
+        <v>1182.370633038819</v>
       </c>
       <c r="S13">
-        <v>0.001763501060047955</v>
+        <v>0.001738401974301576</v>
       </c>
       <c r="T13">
-        <v>0.001763501060047955</v>
+        <v>0.001738401974301576</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N14">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O14">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P14">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q14">
-        <v>1163.894489690509</v>
+        <v>2925.820249409854</v>
       </c>
       <c r="R14">
-        <v>1163.894489690509</v>
+        <v>26332.38224468868</v>
       </c>
       <c r="S14">
-        <v>0.01813180069780783</v>
+        <v>0.03871566495573445</v>
       </c>
       <c r="T14">
-        <v>0.01813180069780783</v>
+        <v>0.03871566495573445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N15">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P15">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q15">
-        <v>3556.617633010222</v>
+        <v>4019.270181148767</v>
       </c>
       <c r="R15">
-        <v>3556.617633010222</v>
+        <v>36173.43163033891</v>
       </c>
       <c r="S15">
-        <v>0.05540698289343936</v>
+        <v>0.0531846471878498</v>
       </c>
       <c r="T15">
-        <v>0.05540698289343936</v>
+        <v>0.0531846471878498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N16">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O16">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P16">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q16">
-        <v>3184.297909958529</v>
+        <v>3817.828066152701</v>
       </c>
       <c r="R16">
-        <v>3184.297909958529</v>
+        <v>34360.4525953743</v>
       </c>
       <c r="S16">
-        <v>0.04960677757067733</v>
+        <v>0.05051908171651392</v>
       </c>
       <c r="T16">
-        <v>0.04960677757067733</v>
+        <v>0.05051908171651392</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N17">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O17">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P17">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q17">
-        <v>4933.132757636119</v>
+        <v>5511.717838071643</v>
       </c>
       <c r="R17">
-        <v>4933.132757636119</v>
+        <v>49605.46054264479</v>
       </c>
       <c r="S17">
-        <v>0.07685110701148691</v>
+        <v>0.0729333325218349</v>
       </c>
       <c r="T17">
-        <v>0.07685110701148691</v>
+        <v>0.0729333325218349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N18">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O18">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P18">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q18">
-        <v>3920.5416450175</v>
+        <v>4454.111963717789</v>
       </c>
       <c r="R18">
-        <v>3920.5416450175</v>
+        <v>40087.0076734601</v>
       </c>
       <c r="S18">
-        <v>0.06107639512393908</v>
+        <v>0.05893865369802154</v>
       </c>
       <c r="T18">
-        <v>0.06107639512393908</v>
+        <v>0.05893865369802154</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N19">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O19">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P19">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q19">
-        <v>1275.491993078301</v>
+        <v>1632.672877298016</v>
       </c>
       <c r="R19">
-        <v>1275.491993078301</v>
+        <v>14694.05589568214</v>
       </c>
       <c r="S19">
-        <v>0.01987032915354305</v>
+        <v>0.02160420350926704</v>
       </c>
       <c r="T19">
-        <v>0.01987032915354305</v>
+        <v>0.02160420350926704</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N20">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O20">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P20">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q20">
-        <v>1376.44326335874</v>
+        <v>3146.451787157742</v>
       </c>
       <c r="R20">
-        <v>1376.44326335874</v>
+        <v>28318.06608441968</v>
       </c>
       <c r="S20">
-        <v>0.02144300462295109</v>
+        <v>0.04163515281416958</v>
       </c>
       <c r="T20">
-        <v>0.02144300462295109</v>
+        <v>0.04163515281416959</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N21">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O21">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P21">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q21">
-        <v>4206.122139646511</v>
+        <v>4322.357071353301</v>
       </c>
       <c r="R21">
-        <v>4206.122139646511</v>
+        <v>38901.21364217971</v>
       </c>
       <c r="S21">
-        <v>0.06552532813089189</v>
+        <v>0.05719521841005698</v>
       </c>
       <c r="T21">
-        <v>0.06552532813089189</v>
+        <v>0.05719521841005699</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N22">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O22">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P22">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q22">
-        <v>3765.809912765562</v>
+        <v>4105.724520920288</v>
       </c>
       <c r="R22">
-        <v>3765.809912765562</v>
+        <v>36951.5206882826</v>
       </c>
       <c r="S22">
-        <v>0.05866589747516618</v>
+        <v>0.05432864680752519</v>
       </c>
       <c r="T22">
-        <v>0.05866589747516618</v>
+        <v>0.0543286468075252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N23">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O23">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P23">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q23">
-        <v>5834.014519055018</v>
+        <v>5927.347876346037</v>
       </c>
       <c r="R23">
-        <v>5834.014519055018</v>
+        <v>53346.13088711433</v>
       </c>
       <c r="S23">
-        <v>0.09088554801539704</v>
+        <v>0.07843312127701088</v>
       </c>
       <c r="T23">
-        <v>0.09088554801539704</v>
+        <v>0.07843312127701088</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N24">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O24">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P24">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q24">
-        <v>4636.505442548051</v>
+        <v>4789.9895939497</v>
       </c>
       <c r="R24">
-        <v>4636.505442548051</v>
+        <v>43109.90634554731</v>
       </c>
       <c r="S24">
-        <v>0.0722300804439216</v>
+        <v>0.06338312556904903</v>
       </c>
       <c r="T24">
-        <v>0.0722300804439216</v>
+        <v>0.06338312556904904</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N25">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O25">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P25">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q25">
-        <v>1508.420545755382</v>
+        <v>1755.790190342174</v>
       </c>
       <c r="R25">
-        <v>1508.420545755382</v>
+        <v>15802.11171307957</v>
       </c>
       <c r="S25">
-        <v>0.02349902069850665</v>
+        <v>0.02323334277133529</v>
       </c>
       <c r="T25">
-        <v>0.02349902069850665</v>
+        <v>0.02323334277133529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N26">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O26">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P26">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q26">
-        <v>1187.079409394679</v>
+        <v>2761.672003843624</v>
       </c>
       <c r="R26">
-        <v>1187.079409394679</v>
+        <v>24855.04803459262</v>
       </c>
       <c r="S26">
-        <v>0.01849298837159986</v>
+        <v>0.03654358740596166</v>
       </c>
       <c r="T26">
-        <v>0.01849298837159986</v>
+        <v>0.03654358740596166</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N27">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O27">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P27">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q27">
-        <v>3627.465888561035</v>
+        <v>3793.775758234267</v>
       </c>
       <c r="R27">
-        <v>3627.465888561035</v>
+        <v>34143.98182410841</v>
       </c>
       <c r="S27">
-        <v>0.05651069672730783</v>
+        <v>0.05020081161944626</v>
       </c>
       <c r="T27">
-        <v>0.05651069672730783</v>
+        <v>0.05020081161944626</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N28">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O28">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P28">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q28">
-        <v>3247.729511371279</v>
+        <v>3603.635215768647</v>
       </c>
       <c r="R28">
-        <v>3247.729511371279</v>
+        <v>32432.71694191782</v>
       </c>
       <c r="S28">
-        <v>0.05059495060951059</v>
+        <v>0.04768479323517082</v>
       </c>
       <c r="T28">
-        <v>0.05059495060951059</v>
+        <v>0.04768479323517082</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N29">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O29">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P29">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q29">
-        <v>5031.401361782718</v>
+        <v>5202.492138591971</v>
       </c>
       <c r="R29">
-        <v>5031.401361782718</v>
+        <v>46822.42924732773</v>
       </c>
       <c r="S29">
-        <v>0.07838199040428627</v>
+        <v>0.06884153003356776</v>
       </c>
       <c r="T29">
-        <v>0.07838199040428627</v>
+        <v>0.06884153003356774</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N30">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O30">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P30">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q30">
-        <v>3998.639311121886</v>
+        <v>4204.221470770623</v>
       </c>
       <c r="R30">
-        <v>3998.639311121886</v>
+        <v>37837.9932369356</v>
       </c>
       <c r="S30">
-        <v>0.0622930443385472</v>
+        <v>0.05563199922992247</v>
       </c>
       <c r="T30">
-        <v>0.0622930443385472</v>
+        <v>0.05563199922992247</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N31">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O31">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P31">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q31">
-        <v>1300.899948614456</v>
+        <v>1541.074499562373</v>
       </c>
       <c r="R31">
-        <v>1300.899948614456</v>
+        <v>13869.67049606135</v>
       </c>
       <c r="S31">
-        <v>0.02026614852548872</v>
+        <v>0.02039213584939721</v>
       </c>
       <c r="T31">
-        <v>0.02026614852548872</v>
+        <v>0.02039213584939721</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H32">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N32">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O32">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P32">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q32">
-        <v>79.98245903283558</v>
+        <v>188.70613974358</v>
       </c>
       <c r="R32">
-        <v>79.98245903283558</v>
+        <v>1698.35525769222</v>
       </c>
       <c r="S32">
-        <v>0.00124601157523272</v>
+        <v>0.002497037773552926</v>
       </c>
       <c r="T32">
-        <v>0.00124601157523272</v>
+        <v>0.002497037773552927</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H33">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N33">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O33">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P33">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q33">
-        <v>244.4096321852536</v>
+        <v>259.2301972836667</v>
       </c>
       <c r="R33">
-        <v>244.4096321852536</v>
+        <v>2333.071775553</v>
       </c>
       <c r="S33">
-        <v>0.003807550236435898</v>
+        <v>0.003430241302919319</v>
       </c>
       <c r="T33">
-        <v>0.003807550236435898</v>
+        <v>0.00343024130291932</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H34">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N34">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O34">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P34">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q34">
-        <v>218.8239392724732</v>
+        <v>246.2378188522311</v>
       </c>
       <c r="R34">
-        <v>218.8239392724732</v>
+        <v>2216.14036967008</v>
       </c>
       <c r="S34">
-        <v>0.003408961972019242</v>
+        <v>0.003258320772110555</v>
       </c>
       <c r="T34">
-        <v>0.003408961972019242</v>
+        <v>0.003258320772110556</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H35">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N35">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O35">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P35">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q35">
-        <v>339.0033136045594</v>
+        <v>355.4883444354178</v>
       </c>
       <c r="R35">
-        <v>339.0033136045594</v>
+        <v>3199.39509991876</v>
       </c>
       <c r="S35">
-        <v>0.005281183623275676</v>
+        <v>0.004703968961048237</v>
       </c>
       <c r="T35">
-        <v>0.005281183623275676</v>
+        <v>0.004703968961048238</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H36">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N36">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O36">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P36">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q36">
-        <v>269.4183745061983</v>
+        <v>287.2761150752223</v>
       </c>
       <c r="R36">
-        <v>269.4183745061983</v>
+        <v>2585.485035677</v>
       </c>
       <c r="S36">
-        <v>0.004197150441164746</v>
+        <v>0.003801356499354557</v>
       </c>
       <c r="T36">
-        <v>0.004197150441164746</v>
+        <v>0.003801356499354558</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H37">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N37">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O37">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P37">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q37">
-        <v>87.65140396035584</v>
+        <v>105.3022297597045</v>
       </c>
       <c r="R37">
-        <v>87.65140396035584</v>
+        <v>947.7200678373401</v>
       </c>
       <c r="S37">
-        <v>0.001365482697589556</v>
+        <v>0.001393402703836915</v>
       </c>
       <c r="T37">
-        <v>0.001365482697589556</v>
+        <v>0.001393402703836915</v>
       </c>
     </row>
   </sheetData>
